--- a/msat_2011-2020_data_marial.xlsx
+++ b/msat_2011-2020_data_marial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rclar\Dropbox\Pinsky_Lab\Marine_Genetic_Diversity_Proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialmalabag/Dropbox/Extra/Summer Internship/Marine.Genetic.Diversity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57E3C88E-4858-43D0-A6BF-53EC3EA720E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{032713B8-98BD-234F-8680-5418259F3C51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19531" windowHeight="13875" xr2:uid="{4D37370C-E9FD-40F4-8D2C-EE5AD04A04C1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29000" windowHeight="16440" xr2:uid="{4D37370C-E9FD-40F4-8D2C-EE5AD04A04C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="45">
   <si>
     <t>spp</t>
   </si>
@@ -96,13 +96,85 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Squalus acanthias</t>
+  </si>
+  <si>
+    <t>Picked dogfish</t>
+  </si>
+  <si>
+    <t>James Thorburn et. al. (2018) Aquatic Conserv: Mar Freshw Ecosyst. 2018;28:1167–1180.</t>
+  </si>
+  <si>
+    <t>DF T289</t>
+  </si>
+  <si>
+    <t>SACA GA11</t>
+  </si>
+  <si>
+    <t>DF J451</t>
+  </si>
+  <si>
+    <t>DF U285</t>
+  </si>
+  <si>
+    <t>DF J445</t>
+  </si>
+  <si>
+    <t>SACA 3853</t>
+  </si>
+  <si>
+    <t>SACA 6396</t>
+  </si>
+  <si>
+    <t>Celtic Sea</t>
+  </si>
+  <si>
+    <t>Loch Etive</t>
+  </si>
+  <si>
+    <t>Sound of Jura</t>
+  </si>
+  <si>
+    <t>North Scotland</t>
+  </si>
+  <si>
+    <t>Rockall</t>
+  </si>
+  <si>
+    <t>Loch Sunart</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Irish Sea</t>
+  </si>
+  <si>
+    <t>Southern North Sea</t>
+  </si>
+  <si>
+    <t>2010-2011</t>
+  </si>
+  <si>
+    <t>2011-2012</t>
+  </si>
+  <si>
+    <t>2010-2013</t>
+  </si>
+  <si>
+    <t>Data includes FS relationship</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +186,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,9 +218,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,22 +540,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF7B14C-10B7-400C-AB23-0A3BC4EB60D4}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,6 +621,2804 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <v>49.35</v>
+      </c>
+      <c r="J2">
+        <v>-7.52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>76</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>0.32</v>
+      </c>
+      <c r="U2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3">
+        <v>49.35</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-7.52</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>76</v>
+      </c>
+      <c r="R3" s="3">
+        <v>2</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4">
+        <v>49.35</v>
+      </c>
+      <c r="J4">
+        <v>-7.52</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>75</v>
+      </c>
+      <c r="R4" s="3">
+        <v>2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <v>49.35</v>
+      </c>
+      <c r="J5">
+        <v>-7.52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>76</v>
+      </c>
+      <c r="R5" s="3">
+        <v>2</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>49.35</v>
+      </c>
+      <c r="J6">
+        <v>-7.52</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>75</v>
+      </c>
+      <c r="R6" s="3">
+        <v>2</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>49.35</v>
+      </c>
+      <c r="J7">
+        <v>-7.52</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>73</v>
+      </c>
+      <c r="R7" s="3">
+        <v>2</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8">
+        <v>49.35</v>
+      </c>
+      <c r="J8">
+        <v>-7.52</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>76</v>
+      </c>
+      <c r="R8" s="3">
+        <v>2</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>56.46</v>
+      </c>
+      <c r="J9">
+        <v>-5.34</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>69</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>56.46</v>
+      </c>
+      <c r="J10">
+        <v>-5.34</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>68</v>
+      </c>
+      <c r="R10" s="3">
+        <v>2</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>56.46</v>
+      </c>
+      <c r="J11">
+        <v>-5.34</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>69</v>
+      </c>
+      <c r="R11" s="3">
+        <v>2</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>56.46</v>
+      </c>
+      <c r="J12">
+        <v>-5.34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>69</v>
+      </c>
+      <c r="R12" s="3">
+        <v>2</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13">
+        <v>56.46</v>
+      </c>
+      <c r="J13">
+        <v>-5.34</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>67</v>
+      </c>
+      <c r="R13" s="3">
+        <v>2</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>56.46</v>
+      </c>
+      <c r="J14">
+        <v>-5.34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>67</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>56.46</v>
+      </c>
+      <c r="J15">
+        <v>-5.34</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>68</v>
+      </c>
+      <c r="R15" s="3">
+        <v>2</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16">
+        <v>55.61</v>
+      </c>
+      <c r="J16">
+        <v>-5.9</v>
+      </c>
+      <c r="M16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>31</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17">
+        <v>55.61</v>
+      </c>
+      <c r="J17">
+        <v>-5.9</v>
+      </c>
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>28</v>
+      </c>
+      <c r="R17" s="3">
+        <v>2</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18">
+        <v>55.61</v>
+      </c>
+      <c r="J18">
+        <v>-5.9</v>
+      </c>
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>31</v>
+      </c>
+      <c r="R18" s="3">
+        <v>2</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19">
+        <v>55.61</v>
+      </c>
+      <c r="J19">
+        <v>-5.9</v>
+      </c>
+      <c r="M19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>31</v>
+      </c>
+      <c r="R19" s="3">
+        <v>2</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20">
+        <v>55.61</v>
+      </c>
+      <c r="J20">
+        <v>-5.9</v>
+      </c>
+      <c r="M20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>30</v>
+      </c>
+      <c r="R20" s="3">
+        <v>2</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21">
+        <v>55.61</v>
+      </c>
+      <c r="J21">
+        <v>-5.9</v>
+      </c>
+      <c r="M21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>30</v>
+      </c>
+      <c r="R21" s="3">
+        <v>2</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="T21" s="3"/>
+      <c r="U21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22">
+        <v>55.61</v>
+      </c>
+      <c r="J22">
+        <v>-5.9</v>
+      </c>
+      <c r="M22" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>31</v>
+      </c>
+      <c r="R22" s="3">
+        <v>2</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23">
+        <v>52.34</v>
+      </c>
+      <c r="J23">
+        <v>2.35</v>
+      </c>
+      <c r="M23" s="4">
+        <v>2013</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>48</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="T23" s="3"/>
+      <c r="U23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24">
+        <v>52.34</v>
+      </c>
+      <c r="J24">
+        <v>2.35</v>
+      </c>
+      <c r="M24" s="4">
+        <v>2013</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>48</v>
+      </c>
+      <c r="R24" s="3">
+        <v>2</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="T24" s="3"/>
+      <c r="U24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25">
+        <v>52.34</v>
+      </c>
+      <c r="J25">
+        <v>2.35</v>
+      </c>
+      <c r="M25" s="4">
+        <v>2013</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>45</v>
+      </c>
+      <c r="R25" s="3">
+        <v>2</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="T25" s="3"/>
+      <c r="U25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26">
+        <v>52.34</v>
+      </c>
+      <c r="J26">
+        <v>2.35</v>
+      </c>
+      <c r="M26" s="4">
+        <v>2013</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>48</v>
+      </c>
+      <c r="R26" s="3">
+        <v>2</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27">
+        <v>52.34</v>
+      </c>
+      <c r="J27">
+        <v>2.35</v>
+      </c>
+      <c r="M27" s="4">
+        <v>2013</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>46</v>
+      </c>
+      <c r="R27" s="3">
+        <v>2</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="T27" s="3"/>
+      <c r="U27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28">
+        <v>52.34</v>
+      </c>
+      <c r="J28">
+        <v>2.35</v>
+      </c>
+      <c r="M28" s="4">
+        <v>2013</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>46</v>
+      </c>
+      <c r="R28" s="3">
+        <v>2</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="T28" s="3"/>
+      <c r="U28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29">
+        <v>52.34</v>
+      </c>
+      <c r="J29">
+        <v>2.35</v>
+      </c>
+      <c r="M29" s="4">
+        <v>2013</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>48</v>
+      </c>
+      <c r="R29" s="3">
+        <v>2</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="T29" s="3"/>
+      <c r="U29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30">
+        <v>58.42</v>
+      </c>
+      <c r="J30">
+        <v>-5.33</v>
+      </c>
+      <c r="M30" s="4">
+        <v>2012</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>13</v>
+      </c>
+      <c r="R30">
+        <v>3</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="T30" s="3"/>
+      <c r="U30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31">
+        <v>58.42</v>
+      </c>
+      <c r="J31">
+        <v>-5.33</v>
+      </c>
+      <c r="M31" s="4">
+        <v>2012</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>13</v>
+      </c>
+      <c r="R31" s="3">
+        <v>2</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="T31" s="3"/>
+      <c r="U31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32">
+        <v>58.42</v>
+      </c>
+      <c r="J32">
+        <v>-5.33</v>
+      </c>
+      <c r="M32" s="4">
+        <v>2012</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>13</v>
+      </c>
+      <c r="R32" s="3">
+        <v>2</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="T32" s="3"/>
+      <c r="U32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33">
+        <v>58.42</v>
+      </c>
+      <c r="J33">
+        <v>-5.33</v>
+      </c>
+      <c r="M33" s="4">
+        <v>2012</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>13</v>
+      </c>
+      <c r="R33" s="3">
+        <v>2</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="T33" s="3"/>
+      <c r="U33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34">
+        <v>58.42</v>
+      </c>
+      <c r="J34">
+        <v>-5.33</v>
+      </c>
+      <c r="M34" s="4">
+        <v>2012</v>
+      </c>
+      <c r="N34" s="3">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>13</v>
+      </c>
+      <c r="R34" s="3">
+        <v>2</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="T34" s="3"/>
+      <c r="U34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35">
+        <v>58.42</v>
+      </c>
+      <c r="J35">
+        <v>-5.33</v>
+      </c>
+      <c r="M35" s="4">
+        <v>2012</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>13</v>
+      </c>
+      <c r="R35" s="3">
+        <v>2</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="T35" s="3"/>
+      <c r="U35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36">
+        <v>58.42</v>
+      </c>
+      <c r="J36">
+        <v>-5.33</v>
+      </c>
+      <c r="M36" s="4">
+        <v>2012</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>13</v>
+      </c>
+      <c r="R36" s="3">
+        <v>2</v>
+      </c>
+      <c r="S36" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="T36" s="3"/>
+      <c r="U36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37">
+        <v>57.55</v>
+      </c>
+      <c r="J37">
+        <v>-14.15</v>
+      </c>
+      <c r="M37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>7</v>
+      </c>
+      <c r="R37">
+        <v>3</v>
+      </c>
+      <c r="S37" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="T37" s="3"/>
+      <c r="U37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38">
+        <v>57.55</v>
+      </c>
+      <c r="J38">
+        <v>-14.15</v>
+      </c>
+      <c r="M38" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" s="3">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>8</v>
+      </c>
+      <c r="R38" s="3">
+        <v>2</v>
+      </c>
+      <c r="S38" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="T38" s="3"/>
+      <c r="U38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39">
+        <v>57.55</v>
+      </c>
+      <c r="J39">
+        <v>-14.15</v>
+      </c>
+      <c r="M39" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>7</v>
+      </c>
+      <c r="R39" s="3">
+        <v>2</v>
+      </c>
+      <c r="S39" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="T39" s="3"/>
+      <c r="U39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40">
+        <v>57.55</v>
+      </c>
+      <c r="J40">
+        <v>-14.15</v>
+      </c>
+      <c r="M40" t="s">
+        <v>42</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>8</v>
+      </c>
+      <c r="R40" s="3">
+        <v>2</v>
+      </c>
+      <c r="S40" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="T40" s="3"/>
+      <c r="U40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41">
+        <v>57.55</v>
+      </c>
+      <c r="J41">
+        <v>-14.15</v>
+      </c>
+      <c r="M41" t="s">
+        <v>42</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3">
+        <v>2</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="T41" s="3"/>
+      <c r="U41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42">
+        <v>57.55</v>
+      </c>
+      <c r="J42">
+        <v>-14.15</v>
+      </c>
+      <c r="M42" t="s">
+        <v>42</v>
+      </c>
+      <c r="N42" s="3">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3">
+        <v>2</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="T42" s="3"/>
+      <c r="U42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43">
+        <v>57.55</v>
+      </c>
+      <c r="J43">
+        <v>-14.15</v>
+      </c>
+      <c r="M43" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3">
+        <v>2</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T43" s="3"/>
+      <c r="U43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44">
+        <v>56.7</v>
+      </c>
+      <c r="J44">
+        <v>-5.75</v>
+      </c>
+      <c r="M44" t="s">
+        <v>42</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44" t="s">
+        <v>24</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>33</v>
+      </c>
+      <c r="R44">
+        <v>3</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="T44" s="3"/>
+      <c r="U44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45">
+        <v>56.7</v>
+      </c>
+      <c r="J45">
+        <v>-5.75</v>
+      </c>
+      <c r="M45" t="s">
+        <v>42</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>33</v>
+      </c>
+      <c r="R45" s="3">
+        <v>2</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="T45" s="3"/>
+      <c r="U45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46">
+        <v>56.7</v>
+      </c>
+      <c r="J46">
+        <v>-5.75</v>
+      </c>
+      <c r="M46" t="s">
+        <v>42</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>33</v>
+      </c>
+      <c r="R46" s="3">
+        <v>2</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="T46" s="3"/>
+      <c r="U46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47">
+        <v>56.7</v>
+      </c>
+      <c r="J47">
+        <v>-5.75</v>
+      </c>
+      <c r="M47" t="s">
+        <v>42</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>33</v>
+      </c>
+      <c r="R47" s="3">
+        <v>2</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="T47" s="3"/>
+      <c r="U47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48">
+        <v>56.7</v>
+      </c>
+      <c r="J48">
+        <v>-5.75</v>
+      </c>
+      <c r="M48" t="s">
+        <v>42</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>32</v>
+      </c>
+      <c r="R48" s="3">
+        <v>2</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="T48" s="3"/>
+      <c r="U48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49">
+        <v>56.7</v>
+      </c>
+      <c r="J49">
+        <v>-5.75</v>
+      </c>
+      <c r="M49" t="s">
+        <v>42</v>
+      </c>
+      <c r="N49" s="3">
+        <v>1</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>32</v>
+      </c>
+      <c r="R49" s="3">
+        <v>2</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="T49" s="3"/>
+      <c r="U49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50">
+        <v>56.7</v>
+      </c>
+      <c r="J50">
+        <v>-5.75</v>
+      </c>
+      <c r="M50" t="s">
+        <v>42</v>
+      </c>
+      <c r="N50" s="3">
+        <v>1</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>32</v>
+      </c>
+      <c r="R50" s="3">
+        <v>2</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="T50" s="3"/>
+      <c r="U50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51">
+        <v>53.3</v>
+      </c>
+      <c r="J51">
+        <v>-4.75</v>
+      </c>
+      <c r="M51" s="4">
+        <v>2011</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>24</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>17</v>
+      </c>
+      <c r="R51">
+        <v>3</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="T51" s="3"/>
+      <c r="U51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52">
+        <v>53.3</v>
+      </c>
+      <c r="J52">
+        <v>-4.75</v>
+      </c>
+      <c r="M52" s="4">
+        <v>2011</v>
+      </c>
+      <c r="N52" s="3">
+        <v>1</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>17</v>
+      </c>
+      <c r="R52" s="3">
+        <v>2</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="T52" s="3"/>
+      <c r="U52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53">
+        <v>53.3</v>
+      </c>
+      <c r="J53">
+        <v>-4.75</v>
+      </c>
+      <c r="M53" s="4">
+        <v>2011</v>
+      </c>
+      <c r="N53" s="3">
+        <v>1</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>17</v>
+      </c>
+      <c r="R53" s="3">
+        <v>2</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="T53" s="3"/>
+      <c r="U53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54">
+        <v>53.3</v>
+      </c>
+      <c r="J54">
+        <v>-4.75</v>
+      </c>
+      <c r="M54" s="4">
+        <v>2011</v>
+      </c>
+      <c r="N54" s="3">
+        <v>1</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>17</v>
+      </c>
+      <c r="R54" s="3">
+        <v>2</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="T54" s="3"/>
+      <c r="U54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55">
+        <v>53.3</v>
+      </c>
+      <c r="J55">
+        <v>-4.75</v>
+      </c>
+      <c r="M55" s="4">
+        <v>2011</v>
+      </c>
+      <c r="N55" s="3">
+        <v>1</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P55" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>17</v>
+      </c>
+      <c r="R55" s="3">
+        <v>2</v>
+      </c>
+      <c r="S55" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="T55" s="3"/>
+      <c r="U55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56">
+        <v>53.3</v>
+      </c>
+      <c r="J56">
+        <v>-4.75</v>
+      </c>
+      <c r="M56" s="4">
+        <v>2011</v>
+      </c>
+      <c r="N56" s="3">
+        <v>1</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P56" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>17</v>
+      </c>
+      <c r="R56" s="3">
+        <v>2</v>
+      </c>
+      <c r="S56" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="T56" s="3"/>
+      <c r="U56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57">
+        <v>53.3</v>
+      </c>
+      <c r="J57">
+        <v>-4.75</v>
+      </c>
+      <c r="M57" s="4">
+        <v>2011</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>17</v>
+      </c>
+      <c r="R57" s="3">
+        <v>2</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T57" s="3"/>
+      <c r="U57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T58" s="3"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T59" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/msat_2011-2020_data_marial.xlsx
+++ b/msat_2011-2020_data_marial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialmalabag/Dropbox/Extra/Summer Internship/Marine.Genetic.Diversity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E58CAD6-676D-A24D-9238-47D159BF8578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F662A6B-6A66-E641-9392-479099FE5F43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{4D37370C-E9FD-40F4-8D2C-EE5AD04A04C1}"/>
   </bookViews>
@@ -767,9 +767,9 @@
   <dimension ref="A1:U286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="P125" sqref="P125"/>
+      <selection pane="bottomLeft" activeCell="L237" sqref="L237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/msat_2011-2020_data_marial.xlsx
+++ b/msat_2011-2020_data_marial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialmalabag/Dropbox/Extra/Summer Internship/Marine.Genetic.Diversity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F662A6B-6A66-E641-9392-479099FE5F43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E33533C-4D22-E648-871A-52E319049081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{4D37370C-E9FD-40F4-8D2C-EE5AD04A04C1}"/>
   </bookViews>
@@ -769,7 +769,7 @@
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L237" sqref="L237"/>
+      <selection pane="bottomLeft" activeCell="F220" sqref="F220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/msat_2011-2020_data_marial.xlsx
+++ b/msat_2011-2020_data_marial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marialmalabag/Dropbox/Extra/Summer Internship/Marine.Genetic.Diversity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4C7C986-74DC-4443-B6C3-705AE6B0CEE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36771021-2158-0541-A8E8-C67BC89A6A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7300" windowWidth="28800" windowHeight="9240" xr2:uid="{4D37370C-E9FD-40F4-8D2C-EE5AD04A04C1}"/>
   </bookViews>
@@ -1081,7 +1081,7 @@
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A843" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G852" sqref="G852"/>
+      <selection pane="bottomLeft" activeCell="O852" sqref="O852"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
